--- a/biology/Médecine/Dysplasie_septo-optique/Dysplasie_septo-optique.xlsx
+++ b/biology/Médecine/Dysplasie_septo-optique/Dysplasie_septo-optique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dysplasie septo optique ou DSO (en anglais septo-optic dysplasia ou SOD), ou syndrome de Morsier[1], est un syndrome malformatif congénital du cerveau par défaut de développement de la ligne médiane, qui comprend une hypoplasie des nerfs optiques, une hypoplasie de l'hypophyse et une agénésie du septum pellucidum[N 1], avec ou sans agénésie du corps calleux. Un hypopituitarisme est parfois associé à cette malformation qui prend alors le nom de dysplasie septo-optique avec insuffisance d’hormone de croissance. L'anomalie peut atteindre le cortex et s’appelle alors DSO plus.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dysplasie septo optique ou DSO (en anglais septo-optic dysplasia ou SOD), ou syndrome de Morsier, est un syndrome malformatif congénital du cerveau par défaut de développement de la ligne médiane, qui comprend une hypoplasie des nerfs optiques, une hypoplasie de l'hypophyse et une agénésie du septum pellucidum[N 1], avec ou sans agénésie du corps calleux. Un hypopituitarisme est parfois associé à cette malformation qui prend alors le nom de dysplasie septo-optique avec insuffisance d’hormone de croissance. L'anomalie peut atteindre le cortex et s’appelle alors DSO plus.
 Sur le plan neuroradiologique, les malformations intracrâniennes associées au syndrome peuvent inclure, outre l'agénésie du septum, une schizencephalie et une holoprosencephalie lobaire.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Incidence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'incidence est de 1 enfant sur 10 000.
 </t>
@@ -543,7 +557,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Exposition au valproate de sodium
 Mutation du gène HESX1 du chromosome 3 locus p21.2-p21.1
@@ -575,7 +591,9 @@
           <t>Description clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les enfants  atteints présentent, à des degrés variables au moins deux des trois troubles suivants: un déficit visuel, un défaut de croissance, un retard mental avec ou sans crise convulsive surtout en cas de DSO plus.
 </t>
@@ -606,7 +624,9 @@
           <t>Diagnostic anténatal</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le diagnostic est suspecté parfois par échographie anténatale et l’imagerie à résonance magnétique fœtale signe le diagnostic.</t>
         </is>
